--- a/biology/Zoologie/Dictis_striatipes/Dictis_striatipes.xlsx
+++ b/biology/Zoologie/Dictis_striatipes/Dictis_striatipes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dictis striatipes est une espèce d'araignées aranéomorphes de la famille des Scytodidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dictis striatipes est une espèce d'araignées aranéomorphes de la famille des Scytodidae.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre dans les îles du Pacifique, en Australie, en Asie du Sud-Est, en Chine, au Japon, en Corée du Sud, en Inde, en Iran, en Irak, aux Émirats arabes unis et au Yémen[1].
-Elle a été introduite aux États-Unis et au Mexique[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre dans les îles du Pacifique, en Australie, en Asie du Sud-Est, en Chine, au Japon, en Corée du Sud, en Inde, en Iran, en Irak, aux Émirats arabes unis et au Yémen.
+Elle a été introduite aux États-Unis et au Mexique.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dictis striatipes mesure de 5 à 8 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dictis striatipes mesure de 5 à 8 mm.
 </t>
         </is>
       </c>
@@ -574,11 +590,13 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite par L. Koch en 1872. Elle est placée dans le genre Scytodes par Simon en 1893[3] puis dans le genre Dictis par Saaristo en 1997[4].
-Dictis nigrolineata et Scythodes depressus ont été placées en synonymie par Song et Hubert en 1983[5].
-Dictis lugubris, Scytodes bilqis, Dictis denticulata, Dictis ganeshi et Dictis mumbaiensis ont été placées en synonymie par Zamani, Stockmann, Magalhaes et Rheims en 2022[6].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite par L. Koch en 1872. Elle est placée dans le genre Scytodes par Simon en 1893 puis dans le genre Dictis par Saaristo en 1997.
+Dictis nigrolineata et Scythodes depressus ont été placées en synonymie par Song et Hubert en 1983.
+Dictis lugubris, Scytodes bilqis, Dictis denticulata, Dictis ganeshi et Dictis mumbaiensis ont été placées en synonymie par Zamani, Stockmann, Magalhaes et Rheims en 2022.
 </t>
         </is>
       </c>
@@ -607,7 +625,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>L. Koch, 1872 : Die Arachniden Australiens. Nürnberg, vol. 1, p. 105-368 (texte intégral).</t>
         </is>
